--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5F14C-A883-0C4B-AD14-EFC229DDAB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B97858-02B4-514C-A1B9-001F562F63F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="34720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="500" windowWidth="20100" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>9:30-11:05</t>
   </si>
@@ -70,83 +70,106 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>databases(lecture)</t>
-  </si>
-  <si>
-    <t>table tennis</t>
-  </si>
-  <si>
-    <t>databases(colloquium)</t>
-  </si>
-  <si>
-    <t>python programming (lecture)</t>
-  </si>
-  <si>
-    <t>golang programming (lecture)</t>
-  </si>
-  <si>
-    <t>python programming (colloquium)</t>
-  </si>
-  <si>
-    <t>golang programming (colloquium)</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Цифровые системы передачи [пр]</t>
+  </si>
+  <si>
+    <t>Калабекянц Н.Э</t>
+  </si>
+  <si>
+    <t>А-321</t>
+  </si>
+  <si>
+    <t>Игровые виды спорта</t>
+  </si>
+  <si>
+    <t>Кулин А.А.</t>
+  </si>
+  <si>
+    <t>А-С Зал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Канищева М.Г. </t>
+  </si>
+  <si>
+    <t>А-Л-409</t>
+  </si>
+  <si>
+    <t>Основы работы с UNIX-подобными операционными системами [пр]</t>
+  </si>
+  <si>
+    <t>Основы интернета вещей [пр]</t>
+  </si>
+  <si>
+    <t>Степанов М.С.</t>
+  </si>
+  <si>
+    <t>А-Л-413</t>
+  </si>
+  <si>
+    <t>Основы интернета вещей [лаб]</t>
+  </si>
+  <si>
+    <t>А-Л-407</t>
+  </si>
+  <si>
+    <t>Теория телетрафика [пр]</t>
+  </si>
+  <si>
+    <t>Патенченкова Е.К</t>
+  </si>
+  <si>
+    <t>А-423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы систем управления [пр] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанова И.В. </t>
+  </si>
+  <si>
+    <t>А-Л-411</t>
+  </si>
+  <si>
+    <t>Основы систем управления [пр]</t>
+  </si>
+  <si>
+    <t>Степанова И.В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы систем управления [лаб] </t>
+  </si>
+  <si>
+    <t>Цифровые системы передачи [лек]</t>
+  </si>
+  <si>
+    <t>А-401</t>
+  </si>
+  <si>
+    <t>А-308</t>
+  </si>
+  <si>
+    <t>Цифровые системы передачи [лаб]</t>
+  </si>
+  <si>
+    <t>А-106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,7 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -266,100 +290,9 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -370,137 +303,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C1" colorId="8" zoomScale="106" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
@@ -792,13 +656,13 @@
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
     <col min="5" max="5" width="58.83203125" customWidth="1"/>
     <col min="6" max="6" width="84.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -810,7 +674,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -820,747 +684,827 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="C27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="D29" s="20"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>18</v>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="20"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="26"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="26"/>
+      <c r="C51" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="18"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="17"/>
+      <c r="C52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="19"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="20"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="18"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="38"/>
+      <c r="C55" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="19"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="38"/>
+      <c r="C56" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="20"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="14"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="17"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="18"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="17"/>
+      <c r="C64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="19"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="17"/>
+      <c r="C65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="26"/>
+      <c r="C66" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="17"/>
+      <c r="C67" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="16"/>
+      <c r="C69" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="18"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="19"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="20"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="C72" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="C73" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="C74" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="C85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
+      <c r="C86" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
       <c r="B87" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
+      <c r="C87" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="C88" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="C89" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="20"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="39">
     <mergeCell ref="A78:A92"/>
     <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
     <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
     <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
     <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="A63:A77"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="A48:A62"/>
@@ -1575,8 +1519,6 @@
     <mergeCell ref="A33:A47"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -1584,27 +1526,10 @@
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D24:D26"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A3:A17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
